--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Saa1-Fpr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Saa1-Fpr2.xlsx
@@ -79,16 +79,16 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Saa1</t>
+  </si>
+  <si>
+    <t>Fpr2</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Saa1</t>
-  </si>
-  <si>
-    <t>Fpr2</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -540,10 +540,10 @@
         <v>0.126158</v>
       </c>
       <c r="I2">
-        <v>0.7158347471331543</v>
+        <v>0.9501423428580035</v>
       </c>
       <c r="J2">
-        <v>0.7158347471331544</v>
+        <v>0.9501423428580037</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,10 +558,10 @@
         <v>3.773181</v>
       </c>
       <c r="O2">
-        <v>0.3633293041311343</v>
+        <v>0.2013489143128838</v>
       </c>
       <c r="P2">
-        <v>0.3633293041311343</v>
+        <v>0.2013489143128838</v>
       </c>
       <c r="Q2">
         <v>0.05289077428866666</v>
@@ -570,10 +570,10 @@
         <v>0.476016968598</v>
       </c>
       <c r="S2">
-        <v>0.2600837405487754</v>
+        <v>0.1913101291771588</v>
       </c>
       <c r="T2">
-        <v>0.2600837405487755</v>
+        <v>0.1913101291771588</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,7 +587,7 @@
         <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -602,10 +602,10 @@
         <v>0.126158</v>
       </c>
       <c r="I3">
-        <v>0.7158347471331543</v>
+        <v>0.9501423428580035</v>
       </c>
       <c r="J3">
-        <v>0.7158347471331544</v>
+        <v>0.9501423428580037</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -614,28 +614,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.09159266666666667</v>
+        <v>0.246708</v>
       </c>
       <c r="N3">
-        <v>0.274778</v>
+        <v>0.740124</v>
       </c>
       <c r="O3">
-        <v>0.02645908042326748</v>
+        <v>0.03949536580856015</v>
       </c>
       <c r="P3">
-        <v>0.02645908042326748</v>
+        <v>0.03949536580856015</v>
       </c>
       <c r="Q3">
-        <v>0.003851715880444444</v>
+        <v>0.010374729288</v>
       </c>
       <c r="R3">
-        <v>0.034665442924</v>
+        <v>0.093372563592</v>
       </c>
       <c r="S3">
-        <v>0.01894032914416547</v>
+        <v>0.03752621940137922</v>
       </c>
       <c r="T3">
-        <v>0.01894032914416547</v>
+        <v>0.03752621940137923</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,7 +649,7 @@
         <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -664,10 +664,10 @@
         <v>0.126158</v>
       </c>
       <c r="I4">
-        <v>0.7158347471331543</v>
+        <v>0.9501423428580035</v>
       </c>
       <c r="J4">
-        <v>0.7158347471331544</v>
+        <v>0.9501423428580037</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.112352666666667</v>
+        <v>4.74207</v>
       </c>
       <c r="N4">
-        <v>6.337058</v>
+        <v>14.22621</v>
       </c>
       <c r="O4">
-        <v>0.6102116154455982</v>
+        <v>0.7591557198785561</v>
       </c>
       <c r="P4">
-        <v>0.6102116154455981</v>
+        <v>0.759155719878556</v>
       </c>
       <c r="Q4">
-        <v>0.08883006257377778</v>
+        <v>0.19941668902</v>
       </c>
       <c r="R4">
-        <v>0.7994705631639999</v>
+        <v>1.79475020118</v>
       </c>
       <c r="S4">
-        <v>0.4368106774402134</v>
+        <v>0.7213059942794655</v>
       </c>
       <c r="T4">
-        <v>0.4368106774402134</v>
+        <v>0.7213059942794656</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,22 +714,22 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.01669366666666667</v>
+        <v>0.002206666666666667</v>
       </c>
       <c r="H5">
-        <v>0.050081</v>
+        <v>0.00662</v>
       </c>
       <c r="I5">
-        <v>0.2841652528668456</v>
+        <v>0.04985765714199641</v>
       </c>
       <c r="J5">
-        <v>0.2841652528668456</v>
+        <v>0.04985765714199642</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,22 +744,22 @@
         <v>3.773181</v>
       </c>
       <c r="O5">
-        <v>0.3633293041311343</v>
+        <v>0.2013489143128838</v>
       </c>
       <c r="P5">
-        <v>0.3633293041311343</v>
+        <v>0.2013489143128838</v>
       </c>
       <c r="Q5">
-        <v>0.02099607529566667</v>
+        <v>0.002775384246666667</v>
       </c>
       <c r="R5">
-        <v>0.188964677661</v>
+        <v>0.02497845822</v>
       </c>
       <c r="S5">
-        <v>0.1032455635823588</v>
+        <v>0.01003878513572497</v>
       </c>
       <c r="T5">
-        <v>0.1032455635823588</v>
+        <v>0.01003878513572497</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,25 +773,25 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.01669366666666667</v>
+        <v>0.002206666666666667</v>
       </c>
       <c r="H6">
-        <v>0.050081</v>
+        <v>0.00662</v>
       </c>
       <c r="I6">
-        <v>0.2841652528668456</v>
+        <v>0.04985765714199641</v>
       </c>
       <c r="J6">
-        <v>0.2841652528668456</v>
+        <v>0.04985765714199642</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -800,28 +800,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.09159266666666667</v>
+        <v>0.246708</v>
       </c>
       <c r="N6">
-        <v>0.274778</v>
+        <v>0.740124</v>
       </c>
       <c r="O6">
-        <v>0.02645908042326748</v>
+        <v>0.03949536580856015</v>
       </c>
       <c r="P6">
-        <v>0.02645908042326748</v>
+        <v>0.03949536580856015</v>
       </c>
       <c r="Q6">
-        <v>0.001529017446444444</v>
+        <v>0.0005444023200000001</v>
       </c>
       <c r="R6">
-        <v>0.013761157018</v>
+        <v>0.00489962088</v>
       </c>
       <c r="S6">
-        <v>0.007518751279102008</v>
+        <v>0.00196914640718092</v>
       </c>
       <c r="T6">
-        <v>0.007518751279102009</v>
+        <v>0.00196914640718092</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,25 +835,25 @@
         <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.01669366666666667</v>
+        <v>0.002206666666666667</v>
       </c>
       <c r="H7">
-        <v>0.050081</v>
+        <v>0.00662</v>
       </c>
       <c r="I7">
-        <v>0.2841652528668456</v>
+        <v>0.04985765714199641</v>
       </c>
       <c r="J7">
-        <v>0.2841652528668456</v>
+        <v>0.04985765714199642</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.112352666666667</v>
+        <v>4.74207</v>
       </c>
       <c r="N7">
-        <v>6.337058</v>
+        <v>14.22621</v>
       </c>
       <c r="O7">
-        <v>0.6102116154455982</v>
+        <v>0.7591557198785561</v>
       </c>
       <c r="P7">
-        <v>0.6102116154455981</v>
+        <v>0.759155719878556</v>
       </c>
       <c r="Q7">
-        <v>0.03526291129977778</v>
+        <v>0.0104641678</v>
       </c>
       <c r="R7">
-        <v>0.317366201698</v>
+        <v>0.09417751019999999</v>
       </c>
       <c r="S7">
-        <v>0.1734009380053848</v>
+        <v>0.03784972559909052</v>
       </c>
       <c r="T7">
-        <v>0.1734009380053848</v>
+        <v>0.03784972559909052</v>
       </c>
     </row>
   </sheetData>
